--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_04_end.xlsx
@@ -844,7 +844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...Save the jabs. If W’s being quiet, that warning sign’s far from “subtle.”
+    <t xml:space="preserve">[name="Hoederer"]  ...Save the jabs. If W’s being quiet, that warning sign’s far from 'subtle.'
 </t>
   </si>
   <si>
@@ -1040,7 +1040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  The “Rhodes Island’s” already left Kazdel, right?
+    <t xml:space="preserve">[name="W"]  The 'Rhodes Island’s' already left Kazdel, right?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_04_end.xlsx
@@ -748,7 +748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">What happened to Babel? Any Sarkaz in contact with Her Majesty Theresa at the time would’ve asked this question.
+    <t xml:space="preserve">What happened to Babel? Any Sarkaz in contact with Her Majesty Theresa at the time would've asked this question.
 </t>
   </si>
   <si>
@@ -756,7 +756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I didn’t ask, and neither did Ines. But, I think she’s closer to the truth than I am.
+    <t xml:space="preserve">I didn't ask, and neither did Ines. But, I think she's closer to the truth than I am.
 </t>
   </si>
   <si>
@@ -768,7 +768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Yes, it’ll be fine. I’ll keep contact with the other teams.
+    <t xml:space="preserve">[name="Hoederer"]  Yes, it'll be fine. I'll keep contact with the other teams.
 </t>
   </si>
   <si>
@@ -780,7 +780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Guys, it looks like we’ll be stationed here for a while.
+    <t xml:space="preserve">[name="Hoederer"]  Guys, it looks like we'll be stationed here for a while.
 </t>
   </si>
   <si>
@@ -792,7 +792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  We can’t risk it, no matter what.
+    <t xml:space="preserve">[name="Hoederer"]  We can't risk it, no matter what.
 </t>
   </si>
   <si>
@@ -800,7 +800,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  It’s rare to see one raging in the wilderness.
+    <t xml:space="preserve">[name="Hoederer"]  It's rare to see one raging in the wilderness.
 </t>
   </si>
   <si>
@@ -808,11 +808,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...Where’s W?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  She’s with her team.
+    <t xml:space="preserve">[name="Hoederer"]  ...Where's W?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  She's with her team.
 </t>
   </si>
   <si>
@@ -820,7 +820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I’m... not sure. She’s changed a lot.
+    <t xml:space="preserve">[name="Hoederer"]  I'm... not sure. She's changed a lot.
 </t>
   </si>
   <si>
@@ -828,7 +828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  She’s too calm. It’s unlike her.
+    <t xml:space="preserve">[name="Hoederer"]  She's too calm. It's unlike her.
 </t>
   </si>
   <si>
@@ -836,15 +836,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  If anything, she’s only gotten worse.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  That’s odd. I never thought you’d be perceptive enough to pick up on these subtle warning signs.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...Save the jabs. If W’s being quiet, that warning sign’s far from 'subtle.'
+    <t xml:space="preserve">[name="Ines"]  If anything, she's only gotten worse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  That's odd. I never thought you'd be perceptive enough to pick up on these subtle warning signs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  ...Save the jabs. If W's being quiet, that warning sign's far from 'subtle.'
 </t>
   </si>
   <si>
@@ -864,7 +864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  ...I don’t take orders from you.
+    <t xml:space="preserve">[name="Ines"]  ...I don't take orders from you.
 </t>
   </si>
   <si>
@@ -888,7 +888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I’m enjoying the Catastrophe, what else?!
+    <t xml:space="preserve">[name="W"]  I'm enjoying the Catastrophe, what else?!
 </t>
   </si>
   <si>
@@ -896,7 +896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  What’d you say? I— can’t— hear— you—
+    <t xml:space="preserve">[name="W"]  What'd you say? I— can't— hear— you—
 </t>
   </si>
   <si>
@@ -904,23 +904,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Don’t get the Sarkaz on your team killed with you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  I already told them to evacuate with Hoederer. I’m not stupid— Hah!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  W! I’m telling you, be careful! Damn it!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  You’re the one who should stay back. You’re not gonna make it if you fall down there—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  And you think you will? If you don’t want to die, get your ass back here—!
+    <t xml:space="preserve">[name="Ines"]  Don't get the Sarkaz on your team killed with you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  I already told them to evacuate with Hoederer. I'm not stupid— Hah!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  W! I'm telling you, be careful! Damn it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  You're the one who should stay back. You're not gonna make it if you fall down there—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  And you think you will? If you don't want to die, get your ass back here—!
 </t>
   </si>
   <si>
@@ -940,7 +940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Fortunately, we didn’t lose anyone from W’s team. Otherwise, we’d get court-martialed long before we get to join Reuinon.
+    <t xml:space="preserve">[name="Hoederer"]  Fortunately, we didn't lose anyone from W's team. Otherwise, we'd get court-martialed long before we get to join Reuinon.
 </t>
   </si>
   <si>
@@ -948,23 +948,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Let’s all head back and rest first, then wait for the news.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  What’s wrong with fighting during a Catastrophe? Are you afraid of the storm? Or of Oripathy?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  I’d just rather not die an early death.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Let’s get ourselves ready.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  It’ll be a real special experience.
+    <t xml:space="preserve">[name="Hoederer"]  Let's all head back and rest first, then wait for the news.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  What's wrong with fighting during a Catastrophe? Are you afraid of the storm? Or of Oripathy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  I'd just rather not die an early death.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Let's get ourselves ready.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  It'll be a real special experience.
 </t>
   </si>
   <si>
@@ -972,7 +972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  What? I’m not upset. It’s not like we’re a couple of ornery kids you have to break apart.
+    <t xml:space="preserve">[name="Ines"]  What? I'm not upset. It's not like we're a couple of ornery kids you have to break apart.
 </t>
   </si>
   <si>
@@ -984,11 +984,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Say what? ...I have no idea if she’s just a lunatic, or if she’s... Goddamnit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  She’s no damn storm cloud. She is the Catastrophe.
+    <t xml:space="preserve">[name="Ines"]  Say what? ...I have no idea if she's just a lunatic, or if she's... Goddamnit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  She's no damn storm cloud. She is the Catastrophe.
 </t>
   </si>
   <si>
@@ -1000,7 +1000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  ...You’re in a good mood.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  ...You're in a good mood.
 </t>
   </si>
   <si>
@@ -1008,15 +1008,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  There’s some news, but you don’t get to hear it until we’re out of this trash heap of a country.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  That can’t be why you set our rendezvous point right under a Catastrophe, right...? Are you trying to get me killed?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Hey, don’t put it that way.
+    <t xml:space="preserve">[name="W"]  There's some news, but you don't get to hear it until we're out of this trash heap of a country.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  That can't be why you set our rendezvous point right under a Catastrophe, right...? Are you trying to get me killed?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Hey, don't put it that way.
 </t>
   </si>
   <si>
@@ -1024,15 +1024,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  I’m not sure I want to know. But, I already have a pretty good idea just from following you, boss.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  That’s right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  It’s this. The crazier shit you do, the less others question you.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  I'm not sure I want to know. But, I already have a pretty good idea just from following you, boss.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  That's right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  It's this. The crazier shit you do, the less others question you.
 </t>
   </si>
   <si>
@@ -1040,11 +1040,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  The 'Rhodes Island’s' already left Kazdel, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  To be specific, we don’t have any reports of a landship that big getting taken in by His Ma... by Theresis’s.
+    <t xml:space="preserve">[name="W"]  The 'Rhodes Island' already left Kazdel, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  To be specific, we don't have any reports of a landship that big getting taken in by His Ma... by Theresis's.
 </t>
   </si>
   <si>
@@ -1060,11 +1060,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Among those traveling with me are both friends and enemies, but it’s always been volatile like that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercenaries don’t care too much about the past because for our kind, life and death are easy come, easy go.
+    <t xml:space="preserve">Among those traveling with me are both friends and enemies, but it's always been volatile like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercenaries don't care too much about the past because for our kind, life and death are easy come, easy go.
 </t>
   </si>
   <si>
@@ -1072,11 +1072,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">...This kind of hope could just be another poison. Since the beginning, we’ve always needed war and conflict to ease this balance.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W is the best example of this. She’s long become drunk on it.
+    <t xml:space="preserve">...This kind of hope could just be another poison. Since the beginning, we've always needed war and conflict to ease this balance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W is the best example of this. She's long become drunk on it.
 </t>
   </si>
   <si>
@@ -1096,7 +1096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I’ve always known that, of course. But at that moment, I truly realized it.
+    <t xml:space="preserve">I've always known that, of course. But at that moment, I truly realized it.
 </t>
   </si>
   <si>
